--- a/outputs/t1.xlsx
+++ b/outputs/t1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbdaniels/GitHub/jclintb2019/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAC4B2C-2630-C24D-930E-11A81151E31E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AE058B-0B3B-6D42-940A-258D1CF96EF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20480" yWindow="460" windowWidth="20480" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <t xml:space="preserve"> China County</t>
   </si>
@@ -282,6 +282,15 @@
   </si>
   <si>
     <t>2 (&lt;1%)</t>
+  </si>
+  <si>
+    <t>South Africa PHC</t>
+  </si>
+  <si>
+    <t>11 (8%)</t>
+  </si>
+  <si>
+    <t>132 (92%)</t>
   </si>
 </sst>
 </file>
@@ -785,7 +794,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -819,12 +828,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -871,7 +874,20 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1068,14 +1084,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D76A5F35-183D-704C-901D-DAEE36714496}" name="Table1" displayName="Table1" ref="A2:J19" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{A0B3D086-450C-A342-8499-671C8E94484B}" name="Column1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{C2C3036C-CEE1-6549-837C-F42B46EA6D66}" name=" China County" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{096C4C63-C258-7D4E-8A16-548B23DE8FF6}" name=" China Township" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{010EFBCA-95BA-C641-B020-70AB6DC43B05}" name=" China Village" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{0FFAD3BD-1D11-C244-A978-D6C001E8E74B}" name=" Nairobi Private" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{A44B73DA-AB2C-6A45-A302-E37DD5D75F68}" name=" Nairobi Public" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D76A5F35-183D-704C-901D-DAEE36714496}" name="Table1" displayName="Table1" ref="A2:K19" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{A0B3D086-450C-A342-8499-671C8E94484B}" name="Column1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{C2C3036C-CEE1-6549-837C-F42B46EA6D66}" name=" China County" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{096C4C63-C258-7D4E-8A16-548B23DE8FF6}" name=" China Township" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{010EFBCA-95BA-C641-B020-70AB6DC43B05}" name=" China Village" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{0FFAD3BD-1D11-C244-A978-D6C001E8E74B}" name=" Nairobi Private" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{A44B73DA-AB2C-6A45-A302-E37DD5D75F68}" name=" Nairobi Public" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{2D32EE11-B375-7B48-8A0D-9E02C36F249F}" name="South Africa PHC" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{A0FB99C9-DA74-1E48-84C0-B1EACE0A9ABE}" name="Mumbai Ayush" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{1C3CD6D2-F63C-3846-B578-DD9CEC951C7A}" name="Mumbai Hospital" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{DF3D806C-058D-1E41-9D73-408EEBC2D25C}" name="Patna Formal" dataDxfId="1"/>
@@ -1382,31 +1399,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A2:K19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.1640625" style="6" customWidth="1"/>
-    <col min="2" max="10" width="9.5" style="2" customWidth="1"/>
+    <col min="2" max="6" width="9.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="2" customWidth="1"/>
+    <col min="8" max="11" width="9.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
@@ -1426,19 +1433,22 @@
         <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1454,19 +1464,22 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1480,47 +1493,50 @@
         <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1539,51 +1555,51 @@
       <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1602,37 +1618,37 @@
       <c r="F10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1645,71 +1661,71 @@
       <c r="E12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1719,37 +1735,37 @@
       <c r="E16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>9</v>
       </c>
@@ -1761,17 +1777,18 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>10</v>
       </c>
@@ -1791,15 +1808,18 @@
         <v>14</v>
       </c>
       <c r="G19" s="10">
+        <v>143</v>
+      </c>
+      <c r="H19" s="10">
         <v>499</v>
       </c>
-      <c r="H19" s="10">
+      <c r="I19" s="10">
         <v>305</v>
       </c>
-      <c r="I19" s="10">
+      <c r="J19" s="10">
         <v>389</v>
       </c>
-      <c r="J19" s="10">
+      <c r="K19" s="10">
         <v>184</v>
       </c>
     </row>
